--- a/kickstarter.com/output/category_270_raised2_all.xlsx
+++ b/kickstarter.com/output/category_270_raised2_all.xlsx
@@ -7422,7 +7422,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="24.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="38.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="62.86214285714286" customWidth="1" bestFit="1"/>

--- a/kickstarter.com/output/category_270_raised2_all.xlsx
+++ b/kickstarter.com/output/category_270_raised2_all.xlsx
@@ -7421,7 +7421,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="26.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="24.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="38.005" customWidth="1" bestFit="1"/>
